--- a/Eurorack_SpinnerLFO/Eurorack_SpinnerLFO_bom.xlsx
+++ b/Eurorack_SpinnerLFO/Eurorack_SpinnerLFO_bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/Eurorack_SpinnerLFO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrei/Documents/GitHub/Midi-boards/Eurorack_SpinnerLFO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5085014-14D6-EB44-8CE6-E0014ADECB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E812FEE-B727-3E46-8B55-E791021AC414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45440" yWindow="-6260" windowWidth="28800" windowHeight="18560" xr2:uid="{6A056D03-5A41-7E4C-9F1A-726EE5E8421D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19260" xr2:uid="{6A056D03-5A41-7E4C-9F1A-726EE5E8421D}"/>
   </bookViews>
   <sheets>
     <sheet name="Eurorack USB-C Power Supply" sheetId="1" r:id="rId1"/>
@@ -1738,7 +1738,7 @@
   <dimension ref="A2:AJ497"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:C30"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10809,6 +10809,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="50" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="10"/>
+  <pageSetup scale="50" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="5"/>
 </worksheet>
 </file>